--- a/src/main/resources/template/excel/export/FranchiseAccount3.xlsx
+++ b/src/main/resources/template/excel/export/FranchiseAccount3.xlsx
@@ -32,14 +32,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="E4")</t>
+          <t>jx:area(lastCell="F5")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="E3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="F4")</t>
         </r>
       </text>
     </comment>
@@ -59,85 +58,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>加盟店编号</t>
+  </si>
+  <si>
+    <t>加盟店名称</t>
+  </si>
+  <si>
+    <t>应收金额</t>
+  </si>
+  <si>
+    <t>已收金额</t>
+  </si>
+  <si>
+    <t>未收金额</t>
+  </si>
+  <si>
+    <t>${obj.branchCode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.payableAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.payedAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.unpayAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>加盟店未收账款汇总</t>
-  </si>
-  <si>
-    <t>加盟店编号</t>
-  </si>
-  <si>
-    <t>加盟店名称</t>
-  </si>
-  <si>
-    <t>应收金额</t>
-  </si>
-  <si>
-    <t>已收金额</t>
-  </si>
-  <si>
-    <t>未收金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>合计：</t>
-  </si>
-  <si>
-    <r>
-      <t>$[SUMPRODUCT(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C3:C3:C3+0)]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(D3:D3:D3+0)]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[SUMPRODUCT(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E3:E3:E3+0)]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.branchCode}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.branchName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.payableAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.payedAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.unpayAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(D4:D4:D4+0)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E4:E4:E4+0)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F4:F4:F4+0)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -147,18 +130,9 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -185,6 +159,49 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -196,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,28 +236,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,79 +558,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="5" width="9" style="3"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="5"/>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C5"/>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/main/resources/template/excel/export/FranchiseAccount3.xlsx
+++ b/src/main/resources/template/excel/export/FranchiseAccount3.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -561,16 +561,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
